--- a/written/presentation/excels/compErr0DegPhase.xlsx
+++ b/written/presentation/excels/compErr0DegPhase.xlsx
@@ -69,7 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,214 +1337,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>32.26126</c:v>
+                  <c:v>59.324131999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.095244000000001</c:v>
+                  <c:v>35.818074000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.030861000000002</c:v>
+                  <c:v>72.192460999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.609327999999998</c:v>
+                  <c:v>56.686100000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.761164000000001</c:v>
+                  <c:v>44.983504000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.509653999999998</c:v>
+                  <c:v>44.511076000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.214143999999997</c:v>
+                  <c:v>59.746943000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.444724999999998</c:v>
+                  <c:v>61.476469000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.925740999999999</c:v>
+                  <c:v>66.020921999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.830920999999996</c:v>
+                  <c:v>48.140242999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.796092999999999</c:v>
+                  <c:v>53.138717999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.470956999999999</c:v>
+                  <c:v>42.872321999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.128639999999997</c:v>
+                  <c:v>42.942126999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.581113000000002</c:v>
+                  <c:v>48.316381</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.128390000000003</c:v>
+                  <c:v>60.861001999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.867677999999998</c:v>
+                  <c:v>32.804909000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.245125000000002</c:v>
+                  <c:v>49.940758000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.870593999999997</c:v>
+                  <c:v>41.431977000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.425955999999999</c:v>
+                  <c:v>44.324348000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47.316837</c:v>
+                  <c:v>56.346131999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.777546999999998</c:v>
+                  <c:v>50.771132000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.591825</c:v>
+                  <c:v>58.287990000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>47.434457000000002</c:v>
+                  <c:v>48.223215000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.409744000000003</c:v>
+                  <c:v>32.296748000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>46.663521000000003</c:v>
+                  <c:v>40.765566999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>38.185642999999999</c:v>
+                  <c:v>59.496440999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.625129999999999</c:v>
+                  <c:v>42.766342000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.423130999999998</c:v>
+                  <c:v>33.999108</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41.926709000000002</c:v>
+                  <c:v>29.930509000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.297129000000002</c:v>
+                  <c:v>45.129092999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50.365966</c:v>
+                  <c:v>55.733922</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>34.221524000000002</c:v>
+                  <c:v>49.600527999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.997210000000003</c:v>
+                  <c:v>47.367190999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>52.170946999999998</c:v>
+                  <c:v>43.841113999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.165508000000003</c:v>
+                  <c:v>47.860019000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50.180221000000003</c:v>
+                  <c:v>48.685867000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>52.269258000000001</c:v>
+                  <c:v>47.761842000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>29.64678</c:v>
+                  <c:v>51.643484999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.346412999999998</c:v>
+                  <c:v>39.043528000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43.293166999999997</c:v>
+                  <c:v>58.756717000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50.338126000000003</c:v>
+                  <c:v>45.393886999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40.214663999999999</c:v>
+                  <c:v>63.159413000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>46.635601000000001</c:v>
+                  <c:v>40.742866999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>58.095767000000002</c:v>
+                  <c:v>44.316802000000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42.742750000000001</c:v>
+                  <c:v>36.65137</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.972875999999999</c:v>
+                  <c:v>41.698146999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>51.578167000000001</c:v>
+                  <c:v>51.875563999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>53.272759000000001</c:v>
+                  <c:v>53.999068999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38.509010000000004</c:v>
+                  <c:v>50.204261000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.569758999999998</c:v>
+                  <c:v>28.954239999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>30.795966</c:v>
+                  <c:v>64.641407999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>36.439011000000001</c:v>
+                  <c:v>11.324590000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42.731456999999999</c:v>
+                  <c:v>35.343969000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53.405386</c:v>
+                  <c:v>48.849516999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41.429262999999999</c:v>
+                  <c:v>53.187215999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>35.114865999999999</c:v>
+                  <c:v>28.936557000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>53.722836999999998</c:v>
+                  <c:v>60.032440999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>53.641145999999999</c:v>
+                  <c:v>63.152900000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>48.071314000000001</c:v>
+                  <c:v>59.774912999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>49.385482000000003</c:v>
+                  <c:v>46.998840999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>47.745668000000002</c:v>
+                  <c:v>48.370165</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>35.589542999999999</c:v>
+                  <c:v>20.483138</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>35.749718999999999</c:v>
+                  <c:v>37.760779999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>36.348664999999997</c:v>
+                  <c:v>55.742410999999997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64.109133</c:v>
+                  <c:v>43.266919999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66.092831000000004</c:v>
+                  <c:v>24.115379000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>46.947270000000003</c:v>
+                  <c:v>23.593793999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>36.271726000000001</c:v>
+                  <c:v>49.103034999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>46.205410000000001</c:v>
+                  <c:v>27.583259999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>45.774028999999999</c:v>
+                  <c:v>35.153292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,11 +2043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1815997632"/>
-        <c:axId val="1816008512"/>
+        <c:axId val="-1332336704"/>
+        <c:axId val="-1332338880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1815997632"/>
+        <c:axId val="-1332336704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2160,12 +2161,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816008512"/>
+        <c:crossAx val="-1332338880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1816008512"/>
+        <c:axId val="-1332338880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2284,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815997632"/>
+        <c:crossAx val="-1332336704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3249,7 +3250,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3286,8 +3287,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>32.26126</v>
+      <c r="D2" s="1">
+        <v>59.324131999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3303,8 +3304,8 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>45.095244000000001</v>
+      <c r="D3" s="1">
+        <v>35.818074000000003</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3320,8 +3321,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>43.030861000000002</v>
+      <c r="D4" s="1">
+        <v>72.192460999999994</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3337,8 +3338,8 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>35.609327999999998</v>
+      <c r="D5" s="1">
+        <v>56.686100000000003</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3354,8 +3355,8 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>59.761164000000001</v>
+      <c r="D6" s="1">
+        <v>44.983504000000003</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3371,8 +3372,8 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>48.509653999999998</v>
+      <c r="D7" s="1">
+        <v>44.511076000000003</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3388,8 +3389,8 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>40.214143999999997</v>
+      <c r="D8" s="1">
+        <v>59.746943000000002</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3405,8 +3406,8 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>43.444724999999998</v>
+      <c r="D9" s="1">
+        <v>61.476469000000002</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3422,8 +3423,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>26.925740999999999</v>
+      <c r="D10" s="1">
+        <v>66.020921999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3439,8 +3440,8 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>56.830920999999996</v>
+      <c r="D11" s="1">
+        <v>48.140242999999998</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3456,8 +3457,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>39.796092999999999</v>
+      <c r="D12" s="1">
+        <v>53.138717999999997</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3473,8 +3474,8 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>61.470956999999999</v>
+      <c r="D13" s="1">
+        <v>42.872321999999997</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3490,8 +3491,8 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>36.128639999999997</v>
+      <c r="D14" s="1">
+        <v>42.942126999999999</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3507,8 +3508,8 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>38.581113000000002</v>
+      <c r="D15" s="1">
+        <v>48.316381</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3524,8 +3525,8 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>49.128390000000003</v>
+      <c r="D16" s="1">
+        <v>60.861001999999999</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3541,8 +3542,8 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>51.867677999999998</v>
+      <c r="D17" s="1">
+        <v>32.804909000000002</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3558,8 +3559,8 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>48.245125000000002</v>
+      <c r="D18" s="1">
+        <v>49.940758000000002</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3575,8 +3576,8 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>40.870593999999997</v>
+      <c r="D19" s="1">
+        <v>41.431977000000003</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3592,8 +3593,8 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>12.425955999999999</v>
+      <c r="D20" s="1">
+        <v>44.324348000000001</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3609,8 +3610,8 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>47.316837</v>
+      <c r="D21" s="1">
+        <v>56.346131999999997</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3626,8 +3627,8 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>48.777546999999998</v>
+      <c r="D22" s="1">
+        <v>50.771132000000001</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3643,8 +3644,8 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>40.591825</v>
+      <c r="D23" s="1">
+        <v>58.287990000000001</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3660,8 +3661,8 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>47.434457000000002</v>
+      <c r="D24" s="1">
+        <v>48.223215000000003</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3677,8 +3678,8 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>48.409744000000003</v>
+      <c r="D25" s="1">
+        <v>32.296748000000001</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3694,8 +3695,8 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>46.663521000000003</v>
+      <c r="D26" s="1">
+        <v>40.765566999999997</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3711,8 +3712,8 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>38.185642999999999</v>
+      <c r="D27" s="1">
+        <v>59.496440999999997</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3728,8 +3729,8 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>43.625129999999999</v>
+      <c r="D28" s="1">
+        <v>42.766342000000002</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3745,8 +3746,8 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>46.423130999999998</v>
+      <c r="D29" s="1">
+        <v>33.999108</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3762,8 +3763,8 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>41.926709000000002</v>
+      <c r="D30" s="1">
+        <v>29.930509000000001</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3779,8 +3780,8 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>29.297129000000002</v>
+      <c r="D31" s="1">
+        <v>45.129092999999997</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3796,8 +3797,8 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>50.365966</v>
+      <c r="D32" s="1">
+        <v>55.733922</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3813,8 +3814,8 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33">
-        <v>34.221524000000002</v>
+      <c r="D33" s="1">
+        <v>49.600527999999997</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3830,8 +3831,8 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34">
-        <v>44.997210000000003</v>
+      <c r="D34" s="1">
+        <v>47.367190999999998</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3847,8 +3848,8 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35">
-        <v>52.170946999999998</v>
+      <c r="D35" s="1">
+        <v>43.841113999999997</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3864,8 +3865,8 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36">
-        <v>43.165508000000003</v>
+      <c r="D36" s="1">
+        <v>47.860019000000001</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3881,8 +3882,8 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>50.180221000000003</v>
+      <c r="D37" s="1">
+        <v>48.685867000000002</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3898,8 +3899,8 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>52.269258000000001</v>
+      <c r="D38" s="1">
+        <v>47.761842000000001</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3915,8 +3916,8 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39">
-        <v>29.64678</v>
+      <c r="D39" s="1">
+        <v>51.643484999999998</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3932,8 +3933,8 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40">
-        <v>42.346412999999998</v>
+      <c r="D40" s="1">
+        <v>39.043528000000002</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3949,8 +3950,8 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41">
-        <v>43.293166999999997</v>
+      <c r="D41" s="1">
+        <v>58.756717000000002</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3966,8 +3967,8 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42">
-        <v>50.338126000000003</v>
+      <c r="D42" s="1">
+        <v>45.393886999999999</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3983,8 +3984,8 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43">
-        <v>40.214663999999999</v>
+      <c r="D43" s="1">
+        <v>63.159413000000001</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -4000,8 +4001,8 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44">
-        <v>46.635601000000001</v>
+      <c r="D44" s="1">
+        <v>40.742866999999997</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -4017,8 +4018,8 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45">
-        <v>58.095767000000002</v>
+      <c r="D45" s="1">
+        <v>44.316802000000003</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -4034,8 +4035,8 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46">
-        <v>42.742750000000001</v>
+      <c r="D46" s="1">
+        <v>36.65137</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4051,8 +4052,8 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47">
-        <v>46.972875999999999</v>
+      <c r="D47" s="1">
+        <v>41.698146999999999</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -4068,8 +4069,8 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48">
-        <v>51.578167000000001</v>
+      <c r="D48" s="1">
+        <v>51.875563999999997</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4085,8 +4086,8 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49">
-        <v>53.272759000000001</v>
+      <c r="D49" s="1">
+        <v>53.999068999999999</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -4102,8 +4103,8 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50">
-        <v>38.509010000000004</v>
+      <c r="D50" s="1">
+        <v>50.204261000000002</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4119,8 +4120,8 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51">
-        <v>49.569758999999998</v>
+      <c r="D51" s="1">
+        <v>28.954239999999999</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4136,8 +4137,8 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52">
-        <v>30.795966</v>
+      <c r="D52" s="1">
+        <v>64.641407999999998</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4153,8 +4154,8 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53">
-        <v>36.439011000000001</v>
+      <c r="D53" s="1">
+        <v>11.324590000000001</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4170,8 +4171,8 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54">
-        <v>42.731456999999999</v>
+      <c r="D54" s="1">
+        <v>35.343969000000001</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4187,8 +4188,8 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55">
-        <v>53.405386</v>
+      <c r="D55" s="1">
+        <v>48.849516999999999</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4204,8 +4205,8 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56">
-        <v>41.429262999999999</v>
+      <c r="D56" s="1">
+        <v>53.187215999999999</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4221,8 +4222,8 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>35.114865999999999</v>
+      <c r="D57" s="1">
+        <v>28.936557000000001</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4238,8 +4239,8 @@
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58">
-        <v>53.722836999999998</v>
+      <c r="D58" s="1">
+        <v>60.032440999999999</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4255,8 +4256,8 @@
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59">
-        <v>53.641145999999999</v>
+      <c r="D59" s="1">
+        <v>63.152900000000002</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4272,8 +4273,8 @@
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60">
-        <v>48.071314000000001</v>
+      <c r="D60" s="1">
+        <v>59.774912999999998</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4289,8 +4290,8 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61">
-        <v>49.385482000000003</v>
+      <c r="D61" s="1">
+        <v>46.998840999999999</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4306,8 +4307,8 @@
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62">
-        <v>47.745668000000002</v>
+      <c r="D62" s="1">
+        <v>48.370165</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4323,8 +4324,8 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63">
-        <v>35.589542999999999</v>
+      <c r="D63" s="1">
+        <v>20.483138</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4340,8 +4341,8 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64">
-        <v>35.749718999999999</v>
+      <c r="D64" s="1">
+        <v>37.760779999999997</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4357,8 +4358,8 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>36.348664999999997</v>
+      <c r="D65" s="1">
+        <v>55.742410999999997</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4374,8 +4375,8 @@
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66">
-        <v>64.109133</v>
+      <c r="D66" s="1">
+        <v>43.266919999999999</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4391,8 +4392,8 @@
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67">
-        <v>66.092831000000004</v>
+      <c r="D67" s="1">
+        <v>24.115379000000001</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4408,8 +4409,8 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="D68">
-        <v>46.947270000000003</v>
+      <c r="D68" s="1">
+        <v>23.593793999999999</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4425,8 +4426,8 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69">
-        <v>36.271726000000001</v>
+      <c r="D69" s="1">
+        <v>49.103034999999998</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4442,8 +4443,8 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70">
-        <v>46.205410000000001</v>
+      <c r="D70" s="1">
+        <v>27.583259999999999</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4459,8 +4460,8 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71">
-        <v>45.774028999999999</v>
+      <c r="D71" s="1">
+        <v>35.153292</v>
       </c>
       <c r="E71">
         <v>0</v>
